--- a/noise_Amp_1_to_5qubit_nogrant_pes.xlsx
+++ b/noise_Amp_1_to_5qubit_nogrant_pes.xlsx
@@ -15,6 +15,8 @@
     <sheet name="4qbit_oracle" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="5 qubits" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="5qbit_oracle" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="6 qubits" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="6qbit_oracle" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -588,6 +590,494 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Marked Items</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>0.0 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>0.0005 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>0.001 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>0.005 noise level oracle calls</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6.191950464396285</v>
+      </c>
+      <c r="C2" t="n">
+        <v>79.19746568109821</v>
+      </c>
+      <c r="D2" t="n">
+        <v>280.8988764044944</v>
+      </c>
+      <c r="E2" t="n">
+        <v>387.8474466709761</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.489337822671156</v>
+      </c>
+      <c r="C3" t="n">
+        <v>27.10210718883393</v>
+      </c>
+      <c r="D3" t="n">
+        <v>80.04802881729037</v>
+      </c>
+      <c r="E3" t="n">
+        <v>123.7240952675534</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>27.14256632964647</v>
+      </c>
+      <c r="D4" t="n">
+        <v>63.66385484641095</v>
+      </c>
+      <c r="E4" t="n">
+        <v>85.96604341285192</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.264417845484222</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.7854976564654</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.46665357037619</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.095975232198143</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12.54967580004183</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.8985923070026</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.003003003003003</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11.95838482082353</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24.44987775061124</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.03030303030303</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.82172833668282</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.83565033845258</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.2017075773746</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.5362430301865</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19.81898658915241</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.428571428571428</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11.20490027638754</v>
+      </c>
+      <c r="D10" t="n">
+        <v>18.10282404055032</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.254791431792559</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.613823013749193</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.671358981243527</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.162162162162162</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.405674508767293</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.098635886673662</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.221368567689645</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.061855670103093</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.041547104231499</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.026342451874367</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.956009177941293</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.004008016032064</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.836047336824136</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.792188092529389</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.005314082318143</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.703292226789616</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.022346933616462</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.703497953817381</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.051639773088641</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.654169407293722</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.091306439132526</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.642257471180638</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.142405707368805</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.6291712787385</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.202691689244257</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.635041802980734</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.276918873380541</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.639208835999054</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.374535481496432</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.663070752211579</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.482899032910827</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.676740936833591</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2.601050824533111</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.707686033146713</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.763919791047664</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.750867388083494</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.932422327463601</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.800186209124247</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.134550583810046</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.833547373061663</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.381348481774532</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.881083598540712</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.664883090229422</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.936775387280279</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4.00416433090414</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.004324670644296</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -3473,4 +3963,492 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Marked Items</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>0.0 noise level</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>0.0005 noise level</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>0.001 noise level</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>0.005 noise level</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>96.89999999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.576</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.136</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.547</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14.759</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.997</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.233</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14.737</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.282999999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.653</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21.762</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.181</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>96.89999999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>23.905</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.153</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>25.087</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>99</v>
+      </c>
+      <c r="C8" t="n">
+        <v>25.377</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.739</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26.005</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15.137</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>26.774</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16.572</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>43.348</v>
+      </c>
+      <c r="D11" t="n">
+        <v>26.071</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>45.396</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>47.378</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>97</v>
+      </c>
+      <c r="C14" t="n">
+        <v>49.486</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>50.556</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>52.137</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>52.73999999999999</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>99.735</v>
+      </c>
+      <c r="C18" t="n">
+        <v>54.006</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>98.895</v>
+      </c>
+      <c r="C19" t="n">
+        <v>54.003</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>97.483</v>
+      </c>
+      <c r="C20" t="n">
+        <v>54.732</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>95.634</v>
+      </c>
+      <c r="C21" t="n">
+        <v>54.911</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>93.35299999999999</v>
+      </c>
+      <c r="C22" t="n">
+        <v>55.10899999999999</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>90.798</v>
+      </c>
+      <c r="C23" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>87.83800000000001</v>
+      </c>
+      <c r="C24" t="n">
+        <v>54.957</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>84.22699999999999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>54.599</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>80.55099999999999</v>
+      </c>
+      <c r="C26" t="n">
+        <v>54.396</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>76.89200000000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>53.942</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>72.361</v>
+      </c>
+      <c r="C28" t="n">
+        <v>53.321</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>68.203</v>
+      </c>
+      <c r="C29" t="n">
+        <v>52.629</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>63.805</v>
+      </c>
+      <c r="C30" t="n">
+        <v>52.171</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>59.148</v>
+      </c>
+      <c r="C31" t="n">
+        <v>51.532</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>54.572</v>
+      </c>
+      <c r="C32" t="n">
+        <v>50.803</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>49.948</v>
+      </c>
+      <c r="C33" t="n">
+        <v>49.946</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>